--- a/output/BRADESCO_18079540000178.xlsx
+++ b/output/BRADESCO_18079540000178.xlsx
@@ -1329,10 +1329,10 @@
         <v>44165</v>
       </c>
       <c r="B86">
-        <v>1.795161</v>
+        <v>1.8130805</v>
       </c>
       <c r="C86">
-        <v>0.08447037091095777</v>
+        <v>0.09142280292168592</v>
       </c>
     </row>
   </sheetData>

--- a/output/BRADESCO_18079540000178.xlsx
+++ b/output/BRADESCO_18079540000178.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>BRADESCO FUNDO DE INVESTIMENTO MULTIMERCADO SEP 500 MAIS</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41608</v>
       </c>
@@ -411,928 +405,676 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41639</v>
       </c>
       <c r="B3">
         <v>0.0254738000000001</v>
       </c>
-      <c r="C3">
-        <v>0.0254738000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41670</v>
       </c>
       <c r="B4">
-        <v>0.005495500000000098</v>
-      </c>
-      <c r="C4">
         <v>-0.01948201894577906</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41698</v>
       </c>
       <c r="B5">
-        <v>0.04421150000000007</v>
-      </c>
-      <c r="C5">
         <v>0.0385043990748839</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41729</v>
       </c>
       <c r="B6">
-        <v>0.0498647000000001</v>
-      </c>
-      <c r="C6">
         <v>0.005413845758258873</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41759</v>
       </c>
       <c r="B7">
-        <v>0.0613087000000001</v>
-      </c>
-      <c r="C7">
         <v>0.01090045222017655</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41790</v>
       </c>
       <c r="B8">
-        <v>0.0919276</v>
-      </c>
-      <c r="C8">
         <v>0.02885013568625205</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41820</v>
       </c>
       <c r="B9">
-        <v>0.1156341000000001</v>
-      </c>
-      <c r="C9">
         <v>0.02171068851085001</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41851</v>
       </c>
       <c r="B10">
-        <v>0.1133896999999999</v>
-      </c>
-      <c r="C10">
         <v>-0.002011770705108606</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41882</v>
       </c>
       <c r="B11">
-        <v>0.1562922</v>
-      </c>
-      <c r="C11">
         <v>0.03853322875180187</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41912</v>
       </c>
       <c r="B12">
-        <v>0.1798105999999999</v>
-      </c>
-      <c r="C12">
         <v>0.02033949550122349</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41943</v>
       </c>
       <c r="B13">
-        <v>0.2112164000000001</v>
-      </c>
-      <c r="C13">
         <v>0.02661935737820986</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41973</v>
       </c>
       <c r="B14">
-        <v>0.2468808</v>
-      </c>
-      <c r="C14">
         <v>0.02944510989118032</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42004</v>
       </c>
       <c r="B15">
-        <v>0.2658548999999999</v>
-      </c>
-      <c r="C15">
         <v>0.01521725252325634</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42035</v>
       </c>
       <c r="B16">
-        <v>0.2387162</v>
-      </c>
-      <c r="C16">
         <v>-0.0214390290703933</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42063</v>
       </c>
       <c r="B17">
-        <v>0.3045667000000001</v>
-      </c>
-      <c r="C17">
         <v>0.05316027997373407</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42094</v>
       </c>
       <c r="B18">
-        <v>0.2948348000000001</v>
-      </c>
-      <c r="C18">
         <v>-0.007459871542022323</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42124</v>
       </c>
       <c r="B19">
-        <v>0.3168111</v>
-      </c>
-      <c r="C19">
         <v>0.01697228094271175</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42155</v>
       </c>
       <c r="B20">
-        <v>0.3444682999999999</v>
-      </c>
-      <c r="C20">
         <v>0.02100316438705585</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42185</v>
       </c>
       <c r="B21">
-        <v>0.3316992999999999</v>
-      </c>
-      <c r="C21">
         <v>-0.009497434785186054</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42216</v>
       </c>
       <c r="B22">
-        <v>0.3486412000000001</v>
-      </c>
-      <c r="C22">
         <v>0.01272201614884083</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42247</v>
       </c>
       <c r="B23">
-        <v>0.2784848</v>
-      </c>
-      <c r="C23">
         <v>-0.05202006286030714</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42277</v>
       </c>
       <c r="B24">
-        <v>0.2513025</v>
-      </c>
-      <c r="C24">
         <v>-0.02126133998620872</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42308</v>
       </c>
       <c r="B25">
-        <v>0.3638285000000001</v>
-      </c>
-      <c r="C25">
         <v>0.08992709596600346</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42338</v>
       </c>
       <c r="B26">
-        <v>0.3804504</v>
-      </c>
-      <c r="C26">
         <v>0.01218767608977211</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42369</v>
       </c>
       <c r="B27">
-        <v>0.3791897</v>
-      </c>
-      <c r="C27">
         <v>-0.000913252660146302</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42400</v>
       </c>
       <c r="B28">
-        <v>0.3021625999999999</v>
-      </c>
-      <c r="C28">
         <v>-0.05584953251898561</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42429</v>
       </c>
       <c r="B29">
-        <v>0.319839</v>
-      </c>
-      <c r="C29">
         <v>0.01357464881881887</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42460</v>
       </c>
       <c r="B30">
-        <v>0.4078957000000001</v>
-      </c>
-      <c r="C30">
         <v>0.06671775875693942</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42490</v>
       </c>
       <c r="B31">
-        <v>0.4212359999999999</v>
-      </c>
-      <c r="C31">
         <v>0.009475346788827999</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42521</v>
       </c>
       <c r="B32">
-        <v>0.456183</v>
-      </c>
-      <c r="C32">
         <v>0.0245891604209294</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42551</v>
       </c>
       <c r="B33">
-        <v>0.4671651999999999</v>
-      </c>
-      <c r="C33">
         <v>0.007541771878946557</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42582</v>
       </c>
       <c r="B34">
-        <v>0.5312942</v>
-      </c>
-      <c r="C34">
         <v>0.04370946093868655</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42613</v>
       </c>
       <c r="B35">
-        <v>0.5435886999999999</v>
-      </c>
-      <c r="C35">
         <v>0.008028829469869159</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42643</v>
       </c>
       <c r="B36">
-        <v>0.5528048000000001</v>
-      </c>
-      <c r="C36">
         <v>0.005970567159503171</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42674</v>
       </c>
       <c r="B37">
-        <v>0.5355185</v>
-      </c>
-      <c r="C37">
         <v>-0.01113230716442926</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42704</v>
       </c>
       <c r="B38">
-        <v>0.6003263000000001</v>
-      </c>
-      <c r="C38">
         <v>0.04220580865681534</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42735</v>
       </c>
       <c r="B39">
-        <v>0.6477605</v>
-      </c>
-      <c r="C39">
         <v>0.02964033022515467</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42766</v>
       </c>
       <c r="B40">
-        <v>0.6783710999999999</v>
-      </c>
-      <c r="C40">
         <v>0.01857709296951837</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42794</v>
       </c>
       <c r="B41">
-        <v>0.752092</v>
-      </c>
-      <c r="C41">
         <v>0.04392407614740268</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42825</v>
       </c>
       <c r="B42">
-        <v>0.7631204</v>
-      </c>
-      <c r="C42">
         <v>0.00629441832963118</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42855</v>
       </c>
       <c r="B43">
-        <v>0.7876755</v>
-      </c>
-      <c r="C43">
         <v>0.01392706930281107</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42886</v>
       </c>
       <c r="B44">
-        <v>0.8254345999999999</v>
-      </c>
-      <c r="C44">
         <v>0.02112189824159927</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42916</v>
       </c>
       <c r="B45">
-        <v>0.8350388</v>
-      </c>
-      <c r="C45">
         <v>0.00526132242699906</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42947</v>
       </c>
       <c r="B46">
-        <v>0.8798029000000001</v>
-      </c>
-      <c r="C46">
         <v>0.0243940891059089</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42978</v>
       </c>
       <c r="B47">
-        <v>0.8891876000000001</v>
-      </c>
-      <c r="C47">
         <v>0.004992385105906605</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43008</v>
       </c>
       <c r="B48">
-        <v>0.9330031000000001</v>
-      </c>
-      <c r="C48">
         <v>0.02319277344399251</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43039</v>
       </c>
       <c r="B49">
-        <v>0.9841017000000001</v>
-      </c>
-      <c r="C49">
         <v>0.02643482568651856</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43069</v>
       </c>
       <c r="B50">
-        <v>1.04781</v>
-      </c>
-      <c r="C50">
         <v>0.03210939237640886</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43100</v>
       </c>
       <c r="B51">
-        <v>1.0725245</v>
-      </c>
-      <c r="C51">
         <v>0.01206874661223445</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43131</v>
       </c>
       <c r="B52">
-        <v>1.18435</v>
-      </c>
-      <c r="C52">
         <v>0.05395617759886528</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43159</v>
       </c>
       <c r="B53">
-        <v>1.1100358</v>
-      </c>
-      <c r="C53">
         <v>-0.03402119623686672</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43190</v>
       </c>
       <c r="B54">
-        <v>1.0509757</v>
-      </c>
-      <c r="C54">
         <v>-0.0279900938173655</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43220</v>
       </c>
       <c r="B55">
-        <v>1.0603005</v>
-      </c>
-      <c r="C55">
         <v>0.00454651900556402</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43251</v>
       </c>
       <c r="B56">
-        <v>1.1263813</v>
-      </c>
-      <c r="C56">
         <v>0.03207337958710399</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43281</v>
       </c>
       <c r="B57">
-        <v>1.1249971</v>
-      </c>
-      <c r="C57">
         <v>-0.0006509650926670441</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43312</v>
       </c>
       <c r="B58">
-        <v>1.2039462</v>
-      </c>
-      <c r="C58">
         <v>0.0371525683493874</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43343</v>
       </c>
       <c r="B59">
-        <v>1.2804104</v>
-      </c>
-      <c r="C59">
         <v>0.03469422257222088</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43373</v>
       </c>
       <c r="B60">
-        <v>1.2956073</v>
-      </c>
-      <c r="C60">
         <v>0.006664107478197678</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43404</v>
       </c>
       <c r="B61">
-        <v>1.1388965</v>
-      </c>
-      <c r="C61">
         <v>-0.06826550865211134</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43434</v>
       </c>
       <c r="B62">
-        <v>1.1767894</v>
-      </c>
-      <c r="C62">
         <v>0.0177160979972617</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43465</v>
       </c>
       <c r="B63">
-        <v>0.9967816</v>
-      </c>
-      <c r="C63">
         <v>-0.08269417335457441</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43496</v>
       </c>
       <c r="B64">
-        <v>1.1491959</v>
-      </c>
-      <c r="C64">
         <v>0.07632998020414461</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43524</v>
       </c>
       <c r="B65">
-        <v>1.2158461</v>
-      </c>
-      <c r="C65">
         <v>0.03101169139583781</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43555</v>
       </c>
       <c r="B66">
-        <v>1.2578378</v>
-      </c>
-      <c r="C66">
         <v>0.01895063921632456</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43585</v>
       </c>
       <c r="B67">
-        <v>1.3554574</v>
-      </c>
-      <c r="C67">
         <v>0.04323587814855445</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43616</v>
       </c>
       <c r="B68">
-        <v>1.2019123</v>
-      </c>
-      <c r="C68">
         <v>-0.06518695689423215</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43646</v>
       </c>
       <c r="B69">
-        <v>1.3574586</v>
-      </c>
-      <c r="C69">
         <v>0.07064146015261374</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43677</v>
       </c>
       <c r="B70">
-        <v>1.3902049</v>
-      </c>
-      <c r="C70">
         <v>0.01389050904223721</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43708</v>
       </c>
       <c r="B71">
-        <v>1.352937</v>
-      </c>
-      <c r="C71">
         <v>-0.01559192686785982</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43738</v>
       </c>
       <c r="B72">
-        <v>1.4018137</v>
-      </c>
-      <c r="C72">
         <v>0.02077263437142607</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43769</v>
       </c>
       <c r="B73">
-        <v>1.4531608</v>
-      </c>
-      <c r="C73">
         <v>0.02137846911273766</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43799</v>
       </c>
       <c r="B74">
-        <v>1.5423982</v>
-      </c>
-      <c r="C74">
         <v>0.03637649843418345</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43830</v>
       </c>
       <c r="B75">
-        <v>1.6080944</v>
-      </c>
-      <c r="C75">
         <v>0.02584024799891704</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43861</v>
       </c>
       <c r="B76">
-        <v>1.6155588</v>
-      </c>
-      <c r="C76">
         <v>0.002862012970082706</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43890</v>
       </c>
       <c r="B77">
-        <v>1.4192213</v>
-      </c>
-      <c r="C77">
         <v>-0.07506522124450055</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43921</v>
       </c>
       <c r="B78">
-        <v>1.0669267</v>
-      </c>
-      <c r="C78">
         <v>-0.1456231391481217</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43951</v>
       </c>
       <c r="B79">
-        <v>1.311427</v>
-      </c>
-      <c r="C79">
         <v>0.1182917130055945</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43982</v>
       </c>
       <c r="B80">
-        <v>1.4320988</v>
-      </c>
-      <c r="C80">
         <v>0.0522066238734773</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>44012</v>
       </c>
       <c r="B81">
-        <v>1.4529885</v>
-      </c>
-      <c r="C81">
         <v>0.008589165867768145</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>44043</v>
       </c>
       <c r="B82">
-        <v>1.5900719</v>
-      </c>
-      <c r="C82">
         <v>0.0558842407944431</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>44074</v>
       </c>
       <c r="B83">
-        <v>1.7687668</v>
-      </c>
-      <c r="C83">
         <v>0.06899225461656111</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>44104</v>
       </c>
       <c r="B84">
-        <v>1.6384287</v>
-      </c>
-      <c r="C84">
         <v>-0.04707442316918853</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>44135</v>
       </c>
       <c r="B85">
-        <v>1.5774434</v>
-      </c>
-      <c r="C85">
         <v>-0.02311424978056065</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>44165</v>
       </c>
       <c r="B86">
-        <v>1.8130805</v>
-      </c>
-      <c r="C86">
-        <v>0.09142280292168592</v>
+        <v>0.07948682791637629</v>
       </c>
     </row>
   </sheetData>
